--- a/biology/Médecine/Gyrus_de_Heschl/Gyrus_de_Heschl.xlsx
+++ b/biology/Médecine/Gyrus_de_Heschl/Gyrus_de_Heschl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gyrus de Heschl ou gyrus temporal transverse est un gyrus du lobe temporal du cortex cérébral. Il est situé sur la face supérieure du gyrus temporal supérieur, dans la profondeur de la scissure de Sylvius, et s'enfonce dans le cerveau jusqu'à l'insula. Il se place dans un plan axial, en arrière de la partie postérieure de l'opercule rolandique et de l'insula.
 Il est constitué d'une et parfois deux petites circonvolutions cylindriques qui suivent une direction antéro-postérieure, partant de la surface latérale vers la profondeur.
@@ -515,7 +527,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>gyrus temporal supérieur
 planum temporale</t>
